--- a/BlockBusterDoc/Đợt 4/CTS6326_Test cases.xlsx
+++ b/BlockBusterDoc/Đợt 4/CTS6326_Test cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DH-CNTT\Môn thay thế\Kỹ thuật lập trình hướng đối tượng\project\BlockBusterDoc\Đợt 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DH-CNTT\Môn thay thế\Kỹ thuật lập trình hướng đối tượng\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE67A104-9AED-4FD5-AD5F-593EF2A8F881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048F25FF-A112-4ED5-A223-3C94101DF2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="406">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -143,24 +143,12 @@
     <t>Sai định dạng email</t>
   </si>
   <si>
-    <t>Sai thông báo: Đăng ký thất bại!!! Email đã có người sử dụng!</t>
-  </si>
-  <si>
     <t>Đăng ký đúng</t>
   </si>
   <si>
     <t>Thông báo sai tài khoản hoặc mật khẩu không đúng</t>
   </si>
   <si>
-    <t>Thông báo Đăng ký thất bại!!! Tài khoản đã có người sử dụng!</t>
-  </si>
-  <si>
-    <t>Thông báo Đăng ký thất bại!!! Email đã có người sử dụng!</t>
-  </si>
-  <si>
-    <t>Thông báo Đăng ký thất bại!!! Email sai định dàng!</t>
-  </si>
-  <si>
     <t>trunghien, 1234</t>
   </si>
   <si>
@@ -170,30 +158,18 @@
     <t>trunghienaz09@gmail.com</t>
   </si>
   <si>
-    <t>(Trương, Hiền, 26/06/2000, Nam, Đồng Tháp, Tháp Mười, Thanh Mỹ, tnthien.cdr@gmail.com,  trunghien2, 1234,1234)</t>
-  </si>
-  <si>
     <t>Thông báo Đăng ký thành công!!! Check Email để kích hoạt tài khoản!</t>
   </si>
   <si>
     <t>Quên mật khẩu</t>
   </si>
   <si>
-    <t>Thông báo Email không được trống!</t>
-  </si>
-  <si>
     <t>Email chưa đăng ký</t>
   </si>
   <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
-    <t>Thông báo Lấy lại mật khẩu thất bại! Email không có trong kho dữ liệu!</t>
-  </si>
-  <si>
-    <t>Thông báo Lấy lại mật khẩu thành công! Vui lòng check email!</t>
-  </si>
-  <si>
     <t>Đúng email</t>
   </si>
   <si>
@@ -227,9 +203,6 @@
     <t>Số trang</t>
   </si>
   <si>
-    <t>Danh sách 20 phim đang công chiếu mới nhất của trang đó</t>
-  </si>
-  <si>
     <t>Hiển thị phim dạng danh sách</t>
   </si>
   <si>
@@ -272,9 +245,6 @@
     <t>Tất cả phim sắp chiếu và theo từng thể loại</t>
   </si>
   <si>
-    <t>Tất cả phim đang công chiếu và theo từng thể loại</t>
-  </si>
-  <si>
     <t>Liên hệ với chúng tôi</t>
   </si>
   <si>
@@ -284,18 +254,12 @@
     <t>trunghien@gmai.com</t>
   </si>
   <si>
-    <t>Thông báo: Email không đúng định dạng</t>
-  </si>
-  <si>
     <t>Liên hệ đúng</t>
   </si>
   <si>
     <t>(Hien, trunghienaz09@gmail.com, Trang web tuyệt vời)</t>
   </si>
   <si>
-    <t>Thông báo: Đã gửi phản hồi thành công hoặc thất bại</t>
-  </si>
-  <si>
     <t>in-progress</t>
   </si>
   <si>
@@ -395,9 +359,6 @@
     <t>Tài khoản chưa kích hoạt</t>
   </si>
   <si>
-    <t>trunghien8, 1234</t>
-  </si>
-  <si>
     <t>Thông báo: Tài khoản chưa được kích hoạt!</t>
   </si>
   <si>
@@ -407,9 +368,6 @@
     <t>Đăng nhập - admin</t>
   </si>
   <si>
-    <t>trunghien2, 1234</t>
-  </si>
-  <si>
     <t>Sai quyền</t>
   </si>
   <si>
@@ -647,9 +605,6 @@
     <t>(New phim, new poster, Free member, 31/12/2020, 1 giờ, description, đang công chiếu, linkTrailer, linkFilm, Hành động)</t>
   </si>
   <si>
-    <t>Chưa check nếu đang công chiếu thì ngày công chiếu phải &lt;= ngày hiện tại, nếu sắp chiếu thì ngày công chiếu &gt; now</t>
-  </si>
-  <si>
     <t>Thêm phim đúng</t>
   </si>
   <si>
@@ -932,22 +887,372 @@
     <t>Danh sách tất cả bình luận về phim của người dùng đó</t>
   </si>
   <si>
-    <t>Thông báo: Tài khoản hoặc mật khẩu không đúng</t>
-  </si>
-  <si>
     <t>Đăng nhập 1 thiết bị tại 1 thời điểm</t>
   </si>
   <si>
-    <t>Thông báo: Tài khoản đang đăng nhập trên thiết bị khác. Vui lòng đăng xuất trước khi đăng nhập!</t>
-  </si>
-  <si>
-    <t>Chưa check</t>
-  </si>
-  <si>
-    <t>chưa check phải chọn at least 1 role</t>
-  </si>
-  <si>
-    <t>chưa check chỉ role user?</t>
+    <t>Thông báo: Tài khoản đang được sử dụng!</t>
+  </si>
+  <si>
+    <t>Thông báo: Sai tài khoản hoặc mật khẩu!</t>
+  </si>
+  <si>
+    <t>Thông báo: Đăng ký thất bại!!! Tài khoản đã có người sử dụng!</t>
+  </si>
+  <si>
+    <t>Thông báo: Đăng ký thất bại!!! Email đã có người sử dụng!</t>
+  </si>
+  <si>
+    <t>(Trương, Hiền, 26/06/2000, Nam, Đồng Tháp, Tháp Mười, Thanh Mỹ, tnthien.cdr@gmail.com,  trunghiendk, 1234,1234)</t>
+  </si>
+  <si>
+    <t>trunghiendk, 1234</t>
+  </si>
+  <si>
+    <t>tab1: (trunghien,1234), tab2:(trunghien,1234)</t>
+  </si>
+  <si>
+    <t>Thông báo: Email phải đúng định dạng! xxxxxxs@gmail.com</t>
+  </si>
+  <si>
+    <t>Email sai định dạng</t>
+  </si>
+  <si>
+    <t>Thông báo: Email không được trống!</t>
+  </si>
+  <si>
+    <t>Thông báo: Lấy lại mật khẩu thất bại! Email không có trong kho dữ liệu!</t>
+  </si>
+  <si>
+    <t>Thông báo: Lấy lại mật khẩu thành công! Vui lòng check email!</t>
+  </si>
+  <si>
+    <t>Danh sách 20 phim đang công chiếu mới nhất của trang đó(2)</t>
+  </si>
+  <si>
+    <t>GenreName(Tất cả)</t>
+  </si>
+  <si>
+    <t>GenreName(Hành động)</t>
+  </si>
+  <si>
+    <t>20 phim đầu tiên đang công chiếu
+TRANG CHỦ &gt; PHIM &gt; TRANG: 1</t>
+  </si>
+  <si>
+    <t>20 phim đầu tiên đang công chiếu thuộc thể loại(Hành động)
+TRANG CHỦ &gt; PHIM &gt; THỂ LOẠI: HÀNH ĐỘNG &gt; TRANG: 1</t>
+  </si>
+  <si>
+    <t>Thông báo: Liên hệ thành công!!! Hoặc Liên hệ thất bại!!!</t>
+  </si>
+  <si>
+    <t>Xem phim</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng thông tin của phim</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng đạo diễn của phim</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng diễn viên của phim</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng đánh giá của phim</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng phim cùng chuyên mục</t>
+  </si>
+  <si>
+    <t>Tất cả thông tin chi tiết của phim</t>
+  </si>
+  <si>
+    <t>Danh sách đạo diễn theo phim</t>
+  </si>
+  <si>
+    <t>Danh sách diễn viên theo phim</t>
+  </si>
+  <si>
+    <t>Danh sách đánh giá theo phim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách phim có thể loại giống với ít nhất 1 thể loại của phim hiện tại </t>
+  </si>
+  <si>
+    <t>Hiển thị đúng danh sách đánh giá của phim</t>
+  </si>
+  <si>
+    <t>Trung bình cộng tất cả đánh giá về phim</t>
+  </si>
+  <si>
+    <t>Mua gói xem phim</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng danh sách gói xem phim</t>
+  </si>
+  <si>
+    <t>Tất cả gói xem phim hiện có</t>
+  </si>
+  <si>
+    <t>Giảm giá gói xem phim đang được áp dụng khuyến mãi</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng giá đã giảm/chưa giảm của gói xem phim</t>
+  </si>
+  <si>
+    <t>Thanh toán gói xem phim</t>
+  </si>
+  <si>
+    <t>Thông báo: Thanh toán thành công!, quay lại trang trước khi vào mua gói</t>
+  </si>
+  <si>
+    <t>Xem tiếp tục nếu phim đang xem dang dở</t>
+  </si>
+  <si>
+    <t>Hiển thị pop-up yêu cầu xem tiếp tục hay không. Nếu OK -&gt; xem tiếp, Hủy -&gt; xem lại từ đầu</t>
+  </si>
+  <si>
+    <t>Lịch sử mua gói</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng các gói đã mua</t>
+  </si>
+  <si>
+    <t>Danh sách mua gói xem phim của người dùng hiện tại</t>
+  </si>
+  <si>
+    <t>Gói trong tài khoản</t>
+  </si>
+  <si>
+    <t>Thời gian còn lại của gói trong tài khoản</t>
+  </si>
+  <si>
+    <t>ToTime</t>
+  </si>
+  <si>
+    <t>Đếm ngược thời gian còn lại của từng loại gói xem phim đã mua của tài khoản</t>
+  </si>
+  <si>
+    <t>Quản lí gói xem phim</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng danh sách gói xem phim trên hệ thống</t>
+  </si>
+  <si>
+    <t>Danh sách gói xem phim trên hệ thống</t>
+  </si>
+  <si>
+    <t>Danh sách gói xem phim với số lượng nhỏ hơn hoặc bằng Number</t>
+  </si>
+  <si>
+    <t>Danh sách gói xem phim có tên chứa SearchText, nếu rỗng hiển thị tất cả</t>
+  </si>
+  <si>
+    <t>Danh sách gói xem phim theo từng trang</t>
+  </si>
+  <si>
+    <t>Thêm gói xem phim</t>
+  </si>
+  <si>
+    <t>Trùng tên gói xem phim</t>
+  </si>
+  <si>
+    <t>Thông báo: Tên gói xem phim trùng!!!</t>
+  </si>
+  <si>
+    <t>Thêm gói xem phim đúng</t>
+  </si>
+  <si>
+    <t>Thông báo: Thêm gói xem phim thành công!!!</t>
+  </si>
+  <si>
+    <t>Cập nhật gói xem phim</t>
+  </si>
+  <si>
+    <t>Xóa gói xem phim</t>
+  </si>
+  <si>
+    <t>Xóa đúng gói xem phim phim</t>
+  </si>
+  <si>
+    <t>Thông báo: Xóa gói xem phim thành công!</t>
+  </si>
+  <si>
+    <t>Tìm kiếm danh sách gói xem phim theo tên</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>VIP03, Dành cho phim hành động</t>
+  </si>
+  <si>
+    <t>Thông báo Sửa gói xem phim thành công!</t>
+  </si>
+  <si>
+    <t>VIP04, Dánh cho phim hài hước</t>
+  </si>
+  <si>
+    <t>Quản lí chi tiết gói xem phim</t>
+  </si>
+  <si>
+    <t>Xóa chi tiết gói xem phim</t>
+  </si>
+  <si>
+    <t>Xóa đúng chi tiết gói xem phim phim</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng danh sách chi tiết của gói xem phim</t>
+  </si>
+  <si>
+    <t>Danh sách chi tiết của gói xem phim</t>
+  </si>
+  <si>
+    <t>Danh sách chi tiết của gói xem phim với số lượng nhỏ hơn hoặc bằng Number</t>
+  </si>
+  <si>
+    <t>Danh sách chi tiết của gói xem phim có tên chứa SearchText, nếu rỗng hiển thị tất cả</t>
+  </si>
+  <si>
+    <t>Danh sách chi tiết của gói xem phim theo từng trang</t>
+  </si>
+  <si>
+    <t>Quản lí danh sách chi tiết của gói xem phim</t>
+  </si>
+  <si>
+    <t>Thêm chi tiết của gói xem phim</t>
+  </si>
+  <si>
+    <t>Để trống thời lượng</t>
+  </si>
+  <si>
+    <t>Thông báo Phải nhập ít nhất hoặc ngày hoặc tháng hoặc năm!!!</t>
+  </si>
+  <si>
+    <t>Để trống giá</t>
+  </si>
+  <si>
+    <t>Thông báo Giá không được rỗng và lớn hơn 0!!!</t>
+  </si>
+  <si>
+    <t>Giá bằng 0</t>
+  </si>
+  <si>
+    <t>Thêm chi tiết của gói xem phim đúng</t>
+  </si>
+  <si>
+    <t>(1,0,0,10000)</t>
+  </si>
+  <si>
+    <t>Thông báo: Thêm chi tiết gói thành công!!!</t>
+  </si>
+  <si>
+    <t>Sửa chi tiết của gói xem phim</t>
+  </si>
+  <si>
+    <t>Thông báo: Sửa chi tiết gói thành công!!!</t>
+  </si>
+  <si>
+    <t>(1,0,0,8000)</t>
+  </si>
+  <si>
+    <t>Thời lượng bằng 0</t>
+  </si>
+  <si>
+    <t>(0,0, 0)</t>
+  </si>
+  <si>
+    <t>Thông báo: Xoá chi tiết gói thành công!!!</t>
+  </si>
+  <si>
+    <t>Quản lí gói giảm giá</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng danh sách gói giảm giá trên hệ thống</t>
+  </si>
+  <si>
+    <t>Danh sách gói giảm giá trên hệ thống</t>
+  </si>
+  <si>
+    <t>Danh sách gói giảm giá với số lượng nhỏ hơn hoặc bằng Number</t>
+  </si>
+  <si>
+    <t>Tìm kiếm danh sách gói giảm giá theo tên</t>
+  </si>
+  <si>
+    <t>Danh sách gói giảm giá có tên chứa SearchText, nếu rỗng hiển thị tất cả</t>
+  </si>
+  <si>
+    <t>Danh sách gói giảm giá theo từng trang</t>
+  </si>
+  <si>
+    <t>Thêm gói giảm giá</t>
+  </si>
+  <si>
+    <t>Thông báo: Tên gói giảm giá trùng!!!</t>
+  </si>
+  <si>
+    <t>Thêm gói giảm giá đúng</t>
+  </si>
+  <si>
+    <t>Thông báo: Thêm gói giảm giá thành công!!!</t>
+  </si>
+  <si>
+    <t>Cập nhật gói giảm giá</t>
+  </si>
+  <si>
+    <t>Xóa gói giảm giá</t>
+  </si>
+  <si>
+    <t>Xóa đúng gói giảm giá phim</t>
+  </si>
+  <si>
+    <t>Thông báo: Xóa gói giảm giá thành công!</t>
+  </si>
+  <si>
+    <t>V02</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc trước thời gian hiện tại</t>
+  </si>
+  <si>
+    <t>Thông bao: Thời gian kết thúc không thể trước thời gian hiện tại!!!</t>
+  </si>
+  <si>
+    <t>10/10/2023  10:10</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc nhỏ hơn thời gian bắt đầu</t>
+  </si>
+  <si>
+    <t>10/11/2023  10:10, 9/11/2023 10:10</t>
+  </si>
+  <si>
+    <t>Thông bao: Thời gian kết thúc không thể trước thời gian bắt đầu!!!</t>
+  </si>
+  <si>
+    <t>ngược</t>
+  </si>
+  <si>
+    <t>(V05, Voucher05,  11/11/2023  10:10, 12/11/2023 10:10, 1000, Vip, 1 tháng)</t>
+  </si>
+  <si>
+    <t>Trùng code gói giảm giá</t>
+  </si>
+  <si>
+    <t>Cập nhật gói giảm giá đúng</t>
+  </si>
+  <si>
+    <t>(V06, Voucher06,  11/11/2023  10:10, 12/11/2023 10:10, 1000, Vip, 1 tháng)</t>
+  </si>
+  <si>
+    <t>Thông báo: Sửa gói giảm giá thành công!!!</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang mua gói xem phim mà phim đó yêu cầu, ngược lại chuyển đến trang phát phim</t>
+  </si>
+  <si>
+    <t>trunghienuser, 1234</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1385,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1114,6 +1419,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -1526,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F262"/>
+  <dimension ref="A2:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1955,7 @@
     </row>
     <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1664,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1679,7 +1988,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1688,13 +1997,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1703,163 +2012,163 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>288</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>2.4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>292</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>289</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>44</v>
+        <v>107</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>82</v>
+        <v>284</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1877,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1892,7 +2201,7 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -1901,13 +2210,13 @@
         <v>4.2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1916,372 +2225,372 @@
         <v>4.3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="13"/>
+        <v>295</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>4.4000000000000004</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
         <v>5</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="C31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
         <v>5.6</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
+      <c r="C37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
         <v>5.7</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
+      <c r="C38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
         <v>5.8</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="C39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9">
-        <v>6.2</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="B41" s="8">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="B48" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E49" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="B50" s="8">
+        <v>7</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
-        <v>8</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="B53" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -2296,10 +2605,10 @@
     </row>
     <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2307,7 +2616,7 @@
     </row>
     <row r="56" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2322,10 +2631,10 @@
     </row>
     <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2333,7 +2642,7 @@
     </row>
     <row r="58" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2348,10 +2657,10 @@
     </row>
     <row r="59" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -2359,7 +2668,7 @@
     </row>
     <row r="60" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -2374,10 +2683,10 @@
     </row>
     <row r="61" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -2385,2846 +2694,4146 @@
     </row>
     <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9">
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="9">
-        <v>12.2</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="16"/>
+      <c r="B63" s="8">
+        <v>12</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F64" s="16"/>
     </row>
     <row r="65" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="9">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="8">
-        <v>13</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="B66" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="10">
-        <v>13.2</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" s="13"/>
+      <c r="B68" s="8">
+        <v>13</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>103</v>
+        <v>34</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F70" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="8">
-        <v>14</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="B72" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="10">
-        <v>14.2</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" s="13"/>
+      <c r="B74" s="8">
+        <v>14</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F75" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="16"/>
     </row>
     <row r="76" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="10">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="8">
-        <v>15</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="B78" s="10">
+        <v>14.4</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="8">
+        <v>15</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9">
         <v>15.1</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="8">
+        <v>16</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="10">
+        <v>16.2</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="10">
+        <v>16.3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="10">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="8">
+        <v>17</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92" s="9">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="19"/>
+      <c r="B93" s="17">
+        <v>17.2</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="9">
-        <v>15.2</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="F93" s="18"/>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="17">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="D95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="8">
-        <v>16</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="8">
+        <v>18</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="10">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="10">
-        <v>16.2</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="10">
-        <v>16.3</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="10">
-        <v>16.5</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="10">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="10">
-        <v>16.7</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="8">
-        <v>17</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="9">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="17">
-        <v>17.2</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F91" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="9">
-        <v>17.3</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="17">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="8">
-        <v>18</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="10">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="10">
-        <v>18.2</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F96" s="3"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10">
-        <v>18.3</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="10">
-        <v>18.399999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="8">
-        <v>19</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
+      <c r="B99" s="10">
+        <v>18.3</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F99" s="3"/>
     </row>
     <row r="100" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="10">
-        <v>19.100000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="10">
-        <v>19.2</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F101" s="3"/>
+      <c r="B101" s="8">
+        <v>19</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="10">
-        <v>19.3</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10">
-        <v>19.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10">
-        <v>19.600000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="8">
-        <v>20</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
+      <c r="B106" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10">
-        <v>20.100000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F107" s="3"/>
     </row>
     <row r="108" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="10">
-        <v>20.2</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F108" s="3"/>
+      <c r="B108" s="8">
+        <v>20</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
     </row>
     <row r="109" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10">
-        <v>20.3</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F109" s="3"/>
     </row>
     <row r="110" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="10">
-        <v>20.399999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F111" s="3"/>
     </row>
     <row r="112" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="10">
-        <v>20.6</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="F112" s="3"/>
     </row>
     <row r="113" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="8">
-        <v>21</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
+      <c r="B113" s="10">
+        <v>20.5</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" s="3"/>
     </row>
     <row r="114" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="10">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E114" s="2" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="10">
-        <v>21.2</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F115" s="3"/>
+      <c r="B115" s="8">
+        <v>21</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="10">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="F116" s="3"/>
     </row>
     <row r="117" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="10">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F117" s="3"/>
     </row>
     <row r="118" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="10">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="10">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="10">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="8">
-        <v>22</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
+      <c r="B121" s="10">
+        <v>21.6</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F121" s="3"/>
     </row>
     <row r="122" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="10">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D122" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E122" s="2" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="10">
-        <v>22.2</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F123" s="3"/>
+      <c r="B123" s="8">
+        <v>22</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
     </row>
     <row r="124" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="10">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="10">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="10">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F126" s="3"/>
     </row>
     <row r="127" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="8">
-        <v>23</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
+      <c r="B127" s="10">
+        <v>22.4</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F127" s="3"/>
     </row>
     <row r="128" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="10">
-        <v>23.1</v>
+        <v>22.5</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E128" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F128" s="3"/>
     </row>
     <row r="129" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="10">
-        <v>23.2</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F129" s="3"/>
+      <c r="B129" s="8">
+        <v>23</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
     </row>
     <row r="130" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="10">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F130" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="10">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>82</v>
+        <v>33</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>302</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F131" s="3"/>
     </row>
     <row r="132" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="10">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>183</v>
+        <v>34</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F132" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="F132" s="13"/>
     </row>
     <row r="133" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="10">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="F133" s="2"/>
     </row>
     <row r="134" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="8">
-        <v>24</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
+      <c r="B134" s="10">
+        <v>23.5</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F134" s="2"/>
     </row>
     <row r="135" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="10">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E135" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F135" s="3"/>
     </row>
     <row r="136" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="10">
-        <v>24.2</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F136" s="13"/>
+      <c r="B136" s="8">
+        <v>24</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
     </row>
     <row r="137" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="10">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>189</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D137" s="3"/>
       <c r="E137" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="10">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F138" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="F138" s="13"/>
     </row>
     <row r="139" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="10">
+        <v>24.3</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="10">
+        <v>24.4</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="10">
         <v>24.5</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="D141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="8">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="8">
         <v>25</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="20">
-        <v>25.1</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="10">
-        <v>25.2</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F142" s="13"/>
+      <c r="C142" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
     </row>
     <row r="143" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="20">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>82</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D143" s="3"/>
       <c r="E143" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F143" s="2"/>
     </row>
     <row r="144" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="10">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>103</v>
+        <v>34</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F144" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="F144" s="13"/>
     </row>
     <row r="145" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="20">
+        <v>25.3</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="10">
+        <v>25.4</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="20">
         <v>25.5</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="D147" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="8">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="8">
         <v>26</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-    </row>
-    <row r="147" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="10">
+      <c r="C148" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="10">
         <v>26.1</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="10">
-        <v>26.2</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="8">
-        <v>27</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
+      <c r="C149" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F149" s="2"/>
     </row>
     <row r="150" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="10">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D150" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E150" s="2" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="10">
-        <v>27.2</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F151" s="3"/>
+      <c r="B151" s="8">
+        <v>27</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
     </row>
     <row r="152" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="10">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="10">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="10">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="8">
-        <v>28</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
+      <c r="B155" s="10">
+        <v>27.4</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F155" s="3"/>
     </row>
     <row r="156" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="10">
-        <v>28.1</v>
+        <v>27.5</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E156" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F156" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F156" s="3"/>
     </row>
     <row r="157" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="10">
-        <v>28.2</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="B157" s="8">
+        <v>28</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="10">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D158" s="3"/>
       <c r="E158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F158" s="2"/>
     </row>
     <row r="159" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="8">
-        <v>29</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
+      <c r="B159" s="10">
+        <v>28.2</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="10">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D160" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E160" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F160" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F160" s="3"/>
     </row>
     <row r="161" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="10">
-        <v>29.2</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F161" s="2"/>
+      <c r="B161" s="8">
+        <v>29</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
     </row>
     <row r="162" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="10">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D162" s="3"/>
       <c r="E162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F162" s="2"/>
     </row>
     <row r="163" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="8">
-        <v>30</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
+      <c r="B163" s="10">
+        <v>29.2</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F163" s="2"/>
     </row>
     <row r="164" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="10">
+        <v>29.3</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="8">
+        <v>30</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+    </row>
+    <row r="166" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="10">
         <v>30.1</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="10">
-        <v>30.2</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" s="3"/>
-    </row>
-    <row r="166" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="8">
-        <v>31</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
+      <c r="E166" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F166" s="2"/>
     </row>
     <row r="167" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="10">
-        <v>31.1</v>
+        <v>30.2</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D167" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E167" s="2" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="F167" s="3"/>
     </row>
     <row r="168" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="10">
-        <v>31.2</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F168" s="3"/>
+      <c r="B168" s="8">
+        <v>31</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
     </row>
     <row r="169" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="10">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F169" s="3"/>
     </row>
     <row r="170" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="10">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="10">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F171" s="3"/>
     </row>
     <row r="172" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="8">
-        <v>32</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
+      <c r="B172" s="10">
+        <v>31.4</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F172" s="3"/>
     </row>
     <row r="173" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="10">
-        <v>32.1</v>
+        <v>31.5</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D173" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="8">
         <v>32</v>
       </c>
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="10">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F174" s="2"/>
+      <c r="C174" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
     </row>
     <row r="175" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="10">
-        <v>32.299999999999997</v>
+        <v>32.1</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D175" s="14" t="s">
-        <v>221</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D175" s="3"/>
       <c r="E175" s="2" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="10">
-        <v>32.4</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="F176" s="2"/>
     </row>
     <row r="177" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="8">
-        <v>33</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
+      <c r="B177" s="10">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F177" s="2"/>
     </row>
     <row r="178" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="10">
-        <v>33.1</v>
+        <v>32.4</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D178" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E178" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F178" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F178" s="3"/>
     </row>
     <row r="179" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="10">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F179" s="2"/>
+      <c r="B179" s="8">
+        <v>33</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
     </row>
     <row r="180" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="10">
-        <v>33.299999999999997</v>
+        <v>33.1</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D180" s="14" t="s">
-        <v>221</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D180" s="3"/>
       <c r="E180" s="2" t="s">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="10">
-        <v>33.4</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="F181" s="2"/>
     </row>
     <row r="182" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="8">
-        <v>34</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
+      <c r="B182" s="10">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F182" s="2"/>
     </row>
     <row r="183" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="10">
+        <v>33.4</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="8">
+        <v>34</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+    </row>
+    <row r="185" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="10">
         <v>34.1</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="10">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="3"/>
-    </row>
-    <row r="185" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="8">
-        <v>35</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
+      <c r="C185" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F185" s="2"/>
     </row>
     <row r="186" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="10">
-        <v>35.1</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D186" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E186" s="2" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="10">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F187" s="3"/>
+      <c r="B187" s="8">
+        <v>35</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
     </row>
     <row r="188" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="10">
-        <v>35.299999999999997</v>
+        <v>35.1</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D188" s="2"/>
       <c r="E188" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F188" s="3"/>
     </row>
     <row r="189" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="10">
-        <v>35.4</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F189" s="3"/>
     </row>
     <row r="190" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="10">
-        <v>35.5</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="F190" s="3"/>
     </row>
     <row r="191" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="8">
-        <v>36</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
+      <c r="B191" s="10">
+        <v>35.4</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F191" s="3"/>
     </row>
     <row r="192" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="10">
-        <v>36.1</v>
+        <v>35.5</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D192" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E192" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F192" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F192" s="3"/>
     </row>
     <row r="193" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="10">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D193" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F193" s="2"/>
+      <c r="B193" s="8">
+        <v>36</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
     </row>
     <row r="194" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="10">
-        <v>36.299999999999997</v>
+        <v>36.1</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D194" s="3"/>
       <c r="E194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F194" s="2"/>
     </row>
     <row r="195" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="8">
-        <v>37</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
+      <c r="B195" s="10">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F195" s="2"/>
     </row>
     <row r="196" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="10">
-        <v>37.1</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E196" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F196" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F196" s="3"/>
     </row>
     <row r="197" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="10">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D197" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F197" s="2"/>
+      <c r="B197" s="8">
+        <v>37</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
     </row>
     <row r="198" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="10">
-        <v>37.299999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F198" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F198" s="2"/>
     </row>
     <row r="199" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="8">
-        <v>38</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
+      <c r="B199" s="10">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F199" s="2"/>
     </row>
     <row r="200" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="10">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="8">
+        <v>38</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+    </row>
+    <row r="202" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="10">
         <v>38.1</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F200" s="2"/>
-    </row>
-    <row r="201" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="10">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F201" s="3"/>
-    </row>
-    <row r="202" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="8">
-        <v>39</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
+      <c r="C202" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F202" s="2"/>
     </row>
     <row r="203" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="10">
-        <v>39.1</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D203" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E203" s="2" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="204" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="10">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F204" s="3"/>
+      <c r="B204" s="8">
+        <v>39</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
     </row>
     <row r="205" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10">
-        <v>39.299999999999997</v>
+        <v>39.1</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D205" s="2"/>
       <c r="E205" s="2" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="F205" s="3"/>
     </row>
     <row r="206" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="10">
-        <v>39.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="F206" s="3"/>
     </row>
     <row r="207" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="10">
-        <v>39.5</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="F207" s="3"/>
     </row>
     <row r="208" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="8">
-        <v>40</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
+      <c r="B208" s="10">
+        <v>39.4</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F208" s="3"/>
     </row>
     <row r="209" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="10">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F209" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F209" s="3"/>
     </row>
     <row r="210" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="10">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F210" s="2"/>
+      <c r="B210" s="8">
+        <v>40</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
     </row>
     <row r="211" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="10">
-        <v>40.299999999999997</v>
+        <v>40.1</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D211" s="14" t="s">
-        <v>251</v>
+        <v>233</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="10">
-        <v>40.4</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F212" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="F212" s="2"/>
     </row>
     <row r="213" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="8">
-        <v>41</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
+      <c r="B213" s="10">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D213" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F213" s="2"/>
     </row>
     <row r="214" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="10">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D214" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E214" s="2" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="F214" s="3"/>
     </row>
     <row r="215" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="10">
-        <v>41.2</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F215" s="3"/>
+      <c r="B215" s="8">
+        <v>41</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
     </row>
     <row r="216" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="10">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F216" s="3"/>
     </row>
     <row r="217" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="10">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="10">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="F218" s="3"/>
     </row>
     <row r="219" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="8">
-        <v>42</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
+      <c r="B219" s="10">
+        <v>41.4</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F219" s="3"/>
     </row>
     <row r="220" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="10">
-        <v>42.1</v>
+        <v>41.5</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D220" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E220" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F220" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F220" s="3"/>
     </row>
     <row r="221" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="10">
-        <v>42.2</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D221" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F221" s="2"/>
+      <c r="B221" s="8">
+        <v>42</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
     </row>
     <row r="222" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="10">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D222" s="3"/>
       <c r="E222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F222" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F222" s="2"/>
     </row>
     <row r="223" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="8">
-        <v>43</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
+      <c r="B223" s="10">
+        <v>42.2</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F223" s="2"/>
     </row>
     <row r="224" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="10">
-        <v>43.1</v>
+        <v>42.3</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E224" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F224" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F224" s="3"/>
     </row>
     <row r="225" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="10">
-        <v>43.2</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D225" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F225" s="2"/>
+      <c r="B225" s="8">
+        <v>43</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
     </row>
     <row r="226" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="10">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D226" s="3"/>
       <c r="E226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F226" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F226" s="2"/>
     </row>
     <row r="227" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="8">
-        <v>44</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7"/>
+      <c r="B227" s="10">
+        <v>43.2</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D227" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F227" s="2"/>
     </row>
     <row r="228" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="10">
+        <v>43.3</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="8">
+        <v>44</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+    </row>
+    <row r="230" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="10">
         <v>44.1</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F228" s="2"/>
-    </row>
-    <row r="229" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="9">
+      <c r="C230" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="9">
         <v>44.2</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E229" s="2" t="s">
+      <c r="D231" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F229" s="3"/>
-    </row>
-    <row r="230" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="8">
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="8">
         <v>45</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-    </row>
-    <row r="231" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="10">
-        <v>45.1</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F231" s="3"/>
-    </row>
-    <row r="232" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="10">
-        <v>45.2</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F232" s="3"/>
+      <c r="C232" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
     </row>
     <row r="233" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="10">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D233" s="2"/>
       <c r="E233" s="2" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="F233" s="3"/>
     </row>
     <row r="234" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="10">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="F234" s="3"/>
     </row>
     <row r="235" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="10">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="F235" s="3"/>
     </row>
     <row r="236" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="8">
-        <v>46</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D236" s="7"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
+      <c r="B236" s="10">
+        <v>45.4</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F236" s="3"/>
     </row>
     <row r="237" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="10">
-        <v>46.1</v>
+        <v>45.5</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>274</v>
+        <v>10</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F237" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F237" s="3"/>
     </row>
     <row r="238" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="10">
-        <v>46.2</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F238" s="2"/>
+      <c r="B238" s="8">
+        <v>46</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
     </row>
     <row r="239" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="10">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="10">
-        <v>46.4</v>
+        <v>46.2</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F240" s="3"/>
+        <v>264</v>
+      </c>
+      <c r="F240" s="2"/>
     </row>
     <row r="241" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="8">
-        <v>47</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D241" s="7"/>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7"/>
+      <c r="B241" s="10">
+        <v>46.3</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F241" s="2"/>
     </row>
     <row r="242" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="10">
-        <v>47.1</v>
+        <v>46.4</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D242" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E242" s="2" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="F242" s="3"/>
     </row>
     <row r="243" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="10">
-        <v>47.2</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F243" s="3"/>
+      <c r="B243" s="8">
+        <v>47</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
     </row>
     <row r="244" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="10">
-        <v>47.3</v>
+        <v>47.1</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D244" s="2"/>
       <c r="E244" s="2" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="F244" s="3"/>
     </row>
     <row r="245" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="10">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="F245" s="3"/>
     </row>
     <row r="246" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="10">
-        <v>47.5</v>
+        <v>47.3</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="F246" s="3"/>
     </row>
     <row r="247" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="8">
-        <v>48</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D247" s="7"/>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7"/>
+      <c r="B247" s="10">
+        <v>47.4</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F247" s="3"/>
     </row>
     <row r="248" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="10">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F248" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F248" s="3"/>
     </row>
     <row r="249" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="10">
-        <v>48.2</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F249" s="2"/>
+      <c r="B249" s="8">
+        <v>48</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
     </row>
     <row r="250" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="10">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="10">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F251" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="F251" s="2"/>
     </row>
     <row r="252" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="8">
-        <v>49</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D252" s="7"/>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
+      <c r="B252" s="10">
+        <v>48.3</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F252" s="2"/>
     </row>
     <row r="253" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="10">
-        <v>49.1</v>
+        <v>48.4</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D253" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E253" s="2" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="10">
-        <v>49.2</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F254" s="3"/>
+      <c r="B254" s="8">
+        <v>49</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
     </row>
     <row r="255" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="10">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D255" s="2"/>
       <c r="E255" s="2" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="F255" s="3"/>
     </row>
     <row r="256" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="10">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F256" s="3"/>
     </row>
     <row r="257" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="10">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="F257" s="3"/>
     </row>
     <row r="258" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="8">
-        <v>50</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D258" s="7"/>
-      <c r="E258" s="7"/>
-      <c r="F258" s="7"/>
+      <c r="B258" s="10">
+        <v>49.4</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F258" s="3"/>
     </row>
     <row r="259" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="10">
-        <v>50.1</v>
+        <v>49.5</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F259" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F259" s="3"/>
     </row>
     <row r="260" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="10">
-        <v>50.2</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F260" s="2"/>
+      <c r="B260" s="8">
+        <v>50</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
     </row>
     <row r="261" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="10">
-        <v>50.3</v>
+        <v>50.1</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="10">
+        <v>50.2</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="10">
+        <v>50.3</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="10">
         <v>50.4</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C264" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E262" s="2" t="s">
+      <c r="D264" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F262" s="3"/>
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="8">
+        <v>51</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
+    </row>
+    <row r="266" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="10">
+        <v>51.1</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="10">
+        <v>51.2</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="10">
+        <v>51.3</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="10">
+        <v>51.4</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="10">
+        <v>51.5</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="10">
+        <v>51.6</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="10">
+        <v>51.7</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="10">
+        <v>51.8</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="10">
+        <v>51.9</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="8">
+        <v>52</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+    </row>
+    <row r="276" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="10">
+        <v>52.1</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="10">
+        <v>52.2</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="10">
+        <v>52.3</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="10">
+        <v>52.4</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="8">
+        <v>53</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D280" s="7"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+    </row>
+    <row r="281" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="10">
+        <v>53.1</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="10">
+        <v>53.2</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="8">
+        <v>54</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+    </row>
+    <row r="284" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="10">
+        <v>54.1</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F284" s="2"/>
+    </row>
+    <row r="285" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="10">
+        <v>54.2</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="8">
+        <v>55</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+    </row>
+    <row r="287" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="10">
+        <v>55.1</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="10">
+        <v>55.3</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="10">
+        <v>55.4</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="10">
+        <v>55.5</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="8">
+        <v>56</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+    </row>
+    <row r="293" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="10">
+        <v>56.1</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D293" s="3"/>
+      <c r="E293" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="10">
+        <v>56.2</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="10">
+        <v>56.3</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="10">
+        <v>56.4</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="8">
+        <v>57</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
+      <c r="F297" s="7"/>
+    </row>
+    <row r="298" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="10">
+        <v>57.1</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="3"/>
+      <c r="E298" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="10">
+        <v>57.2</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="10">
+        <v>57.3</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="10">
+        <v>57.4</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="8">
+        <v>58</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
+    </row>
+    <row r="303" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="10">
+        <v>58.1</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="10">
+        <v>58.2</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="8">
+        <v>59</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D305" s="7"/>
+      <c r="E305" s="7"/>
+      <c r="F305" s="7"/>
+    </row>
+    <row r="306" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="10">
+        <v>59.1</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="10">
+        <v>59.2</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="10">
+        <v>59.3</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="10">
+        <v>59.4</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="8">
+        <v>60</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+    </row>
+    <row r="312" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="10">
+        <v>60.1</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="10">
+        <v>60.2</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="10">
+        <v>60.3</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="10">
+        <v>60.4</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="10">
+        <v>60.5</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="10">
+        <v>60.6</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="8">
+        <v>61</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+    </row>
+    <row r="319" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="10">
+        <v>61.1</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D319" s="3"/>
+      <c r="E319" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F319" s="2"/>
+    </row>
+    <row r="320" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="10">
+        <v>61.2</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F320" s="2"/>
+    </row>
+    <row r="321" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="10">
+        <v>61.3</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D321" s="3"/>
+      <c r="E321" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="10">
+        <v>61.4</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D322" s="21">
+        <v>0</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="10">
+        <v>61.5</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="10">
+        <v>61.6</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="8">
+        <v>62</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D325" s="7"/>
+      <c r="E325" s="7"/>
+      <c r="F325" s="7"/>
+    </row>
+    <row r="326" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="10">
+        <v>62.1</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D326" s="3"/>
+      <c r="E326" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="10">
+        <v>62.2</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F327" s="2"/>
+    </row>
+    <row r="328" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="10">
+        <v>62.3</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D328" s="3"/>
+      <c r="E328" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="10">
+        <v>62.4</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D329" s="21">
+        <v>0</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F329" s="2"/>
+    </row>
+    <row r="330" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="10">
+        <v>62.5</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="10">
+        <v>62.6</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="8">
+        <v>63</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D332" s="7"/>
+      <c r="E332" s="7"/>
+      <c r="F332" s="7"/>
+    </row>
+    <row r="333" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="10">
+        <v>63.1</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F333" s="2"/>
+    </row>
+    <row r="334" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="10">
+        <v>63.2</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="8">
+        <v>64</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D335" s="7"/>
+      <c r="E335" s="7"/>
+      <c r="F335" s="7"/>
+    </row>
+    <row r="336" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="10">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="10">
+        <v>64.2</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="10">
+        <v>64.3</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="10">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="10">
+        <v>64.5</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="8">
+        <v>65</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D341" s="7"/>
+      <c r="E341" s="7"/>
+      <c r="F341" s="7"/>
+    </row>
+    <row r="342" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="10">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" s="3"/>
+      <c r="E342" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F342" s="2"/>
+    </row>
+    <row r="343" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="10">
+        <v>65.2</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F343" s="2"/>
+    </row>
+    <row r="344" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="10">
+        <v>65.3</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D344" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F344" s="2"/>
+    </row>
+    <row r="345" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="10">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D345" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="10">
+        <v>65.5</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D346" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F346" s="2"/>
+    </row>
+    <row r="347" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="10">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="8">
+        <v>66</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D348" s="7"/>
+      <c r="E348" s="7"/>
+      <c r="F348" s="7"/>
+    </row>
+    <row r="349" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="10">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" s="3"/>
+      <c r="E349" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F349" s="2"/>
+    </row>
+    <row r="350" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="10">
+        <v>66.2</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F350" s="2"/>
+    </row>
+    <row r="351" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="10">
+        <v>66.3</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D351" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F351" s="2"/>
+    </row>
+    <row r="352" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="10">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D352" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="10">
+        <v>66.5</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D353" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F353" s="2"/>
+    </row>
+    <row r="354" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="10">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="8">
+        <v>67</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D355" s="7"/>
+      <c r="E355" s="7"/>
+      <c r="F355" s="7"/>
+    </row>
+    <row r="356" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="10">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F356" s="2"/>
+    </row>
+    <row r="357" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="10">
+        <v>67.2</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F357" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" xr:uid="{7E84A287-C753-4E38-980C-0DBC798EBD23}"/>
-    <hyperlink ref="D28" r:id="rId2" xr:uid="{F5B80AA5-C46D-41AC-A1CF-0EF7DEB98C2D}"/>
-    <hyperlink ref="D27" r:id="rId3" xr:uid="{F0CA5FBD-6ED4-46C3-BB4F-C0CD6C87DCCE}"/>
-    <hyperlink ref="D50" r:id="rId4" xr:uid="{6D2D38C3-1C4E-4F17-A7F4-CF990CDDC17E}"/>
-    <hyperlink ref="D68" r:id="rId5" xr:uid="{8BA84210-2E74-4B07-9D25-1FBE31250A79}"/>
-    <hyperlink ref="D69" r:id="rId6" xr:uid="{605BF7E4-C29B-4B3A-94A3-427625DC2174}"/>
-    <hyperlink ref="D22" r:id="rId7" xr:uid="{53E7C15B-53D5-43C2-BB22-AD060ACB277D}"/>
-    <hyperlink ref="D130" r:id="rId8" xr:uid="{9836DC3D-A3B5-484C-9D11-A4DDFDA676D7}"/>
-    <hyperlink ref="D131" r:id="rId9" xr:uid="{425C3F98-D185-4CCF-8007-3385A7872FC7}"/>
-    <hyperlink ref="D136" r:id="rId10" xr:uid="{35E968DE-8FD3-44D9-9385-FA9720D7FC52}"/>
-    <hyperlink ref="D137" r:id="rId11" xr:uid="{D80E1528-B027-44BB-AFD7-E810EBDDD384}"/>
-    <hyperlink ref="D143" r:id="rId12" xr:uid="{436B0130-B408-4A95-8528-066854E5DC82}"/>
-    <hyperlink ref="D142" r:id="rId13" xr:uid="{1ED1D857-1A8D-40B9-B081-CCD0E3822040}"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{F5B80AA5-C46D-41AC-A1CF-0EF7DEB98C2D}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{F0CA5FBD-6ED4-46C3-BB4F-C0CD6C87DCCE}"/>
+    <hyperlink ref="D52" r:id="rId3" xr:uid="{6D2D38C3-1C4E-4F17-A7F4-CF990CDDC17E}"/>
+    <hyperlink ref="D70" r:id="rId4" xr:uid="{8BA84210-2E74-4B07-9D25-1FBE31250A79}"/>
+    <hyperlink ref="D71" r:id="rId5" xr:uid="{605BF7E4-C29B-4B3A-94A3-427625DC2174}"/>
+    <hyperlink ref="D132" r:id="rId6" xr:uid="{9836DC3D-A3B5-484C-9D11-A4DDFDA676D7}"/>
+    <hyperlink ref="D133" r:id="rId7" xr:uid="{425C3F98-D185-4CCF-8007-3385A7872FC7}"/>
+    <hyperlink ref="D138" r:id="rId8" xr:uid="{35E968DE-8FD3-44D9-9385-FA9720D7FC52}"/>
+    <hyperlink ref="D139" r:id="rId9" xr:uid="{D80E1528-B027-44BB-AFD7-E810EBDDD384}"/>
+    <hyperlink ref="D145" r:id="rId10" xr:uid="{436B0130-B408-4A95-8528-066854E5DC82}"/>
+    <hyperlink ref="D144" r:id="rId11" xr:uid="{1ED1D857-1A8D-40B9-B081-CCD0E3822040}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{D734CF81-ADE9-4E23-B40A-F17A3C01B22B}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{F252A4C0-F9E1-42E4-A487-853765AFE319}"/>
+    <hyperlink ref="D28" r:id="rId14" xr:uid="{A007A078-CFAA-4E3C-A523-C947BD3D182F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
--- a/BlockBusterDoc/Đợt 4/CTS6326_Test cases.xlsx
+++ b/BlockBusterDoc/Đợt 4/CTS6326_Test cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DH-CNTT\Môn thay thế\Kỹ thuật lập trình hướng đối tượng\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DH-CNTT\Môn thay thế\Kỹ thuật lập trình hướng đối tượng\project\BlockBusterDoc\Đợt 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048F25FF-A112-4ED5-A223-3C94101DF2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2260B22-0908-4526-8047-EF3B88491A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="405">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>(Hien, trunghienaz09@gmail.com, Trang web tuyệt vời)</t>
-  </si>
-  <si>
-    <t>in-progress</t>
   </si>
   <si>
     <t>Giới thiệu</t>
@@ -1837,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F328" sqref="F328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1988,7 +1985,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -2003,7 +2000,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -2018,7 +2015,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F13" s="13"/>
     </row>
@@ -2030,10 +2027,10 @@
         <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -2045,7 +2042,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>41</v>
@@ -2072,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2087,7 +2084,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -2102,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -2126,13 +2123,13 @@
         <v>3.4</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F21" s="11"/>
     </row>
@@ -2141,13 +2138,13 @@
         <v>3.5</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="F22" s="11"/>
     </row>
@@ -2201,7 +2198,7 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -2216,7 +2213,7 @@
         <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -2225,13 +2222,13 @@
         <v>4.3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -2246,7 +2243,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F29" s="13"/>
     </row>
@@ -2343,7 +2340,7 @@
         <v>64</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -2355,10 +2352,10 @@
         <v>62</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -2370,10 +2367,10 @@
         <v>62</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F38" s="2"/>
     </row>
@@ -2569,7 +2566,7 @@
         <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -2584,7 +2581,7 @@
         <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F53" s="2"/>
     </row>
@@ -2608,7 +2605,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2634,7 +2631,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2660,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -2686,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -2712,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -2723,11 +2720,11 @@
         <v>12.1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="16"/>
     </row>
@@ -2736,11 +2733,11 @@
         <v>12.2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F65" s="16"/>
     </row>
@@ -2749,11 +2746,11 @@
         <v>12.3</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F66" s="16"/>
     </row>
@@ -2777,7 +2774,7 @@
         <v>13</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -2792,7 +2789,7 @@
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" s="16"/>
     </row>
@@ -2804,10 +2801,10 @@
         <v>34</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F70" s="13"/>
     </row>
@@ -2822,7 +2819,7 @@
         <v>72</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2"/>
     </row>
@@ -2834,10 +2831,10 @@
         <v>36</v>
       </c>
       <c r="D72" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F72" s="2"/>
     </row>
@@ -2861,7 +2858,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -2876,7 +2873,7 @@
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F75" s="16"/>
     </row>
@@ -2885,13 +2882,13 @@
         <v>14.2</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="E76" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F76" s="13"/>
     </row>
@@ -2900,13 +2897,13 @@
         <v>14.3</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -2915,13 +2912,13 @@
         <v>14.4</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -2945,7 +2942,7 @@
         <v>15</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -2956,11 +2953,11 @@
         <v>15.1</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F81" s="16"/>
     </row>
@@ -2984,7 +2981,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -3023,13 +3020,13 @@
         <v>16.3</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F86" s="3"/>
     </row>
@@ -3044,7 +3041,7 @@
         <v>38</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F87" s="11"/>
     </row>
@@ -3053,13 +3050,13 @@
         <v>16.5</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F88" s="11"/>
     </row>
@@ -3098,7 +3095,7 @@
         <v>17</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -3110,13 +3107,13 @@
         <v>17.100000000000001</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F92" s="2"/>
     </row>
@@ -3126,13 +3123,13 @@
         <v>17.2</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D93" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E93" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="F93" s="18"/>
     </row>
@@ -3141,13 +3138,13 @@
         <v>17.3</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F94" s="2"/>
     </row>
@@ -3171,7 +3168,7 @@
         <v>18</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -3182,13 +3179,13 @@
         <v>18.100000000000001</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F97" s="3"/>
     </row>
@@ -3197,13 +3194,13 @@
         <v>18.2</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F98" s="3"/>
     </row>
@@ -3212,13 +3209,13 @@
         <v>18.3</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F99" s="3"/>
     </row>
@@ -3242,7 +3239,7 @@
         <v>19</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -3253,13 +3250,13 @@
         <v>19.100000000000001</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F102" s="3"/>
     </row>
@@ -3268,13 +3265,13 @@
         <v>19.2</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F103" s="3"/>
     </row>
@@ -3283,13 +3280,13 @@
         <v>19.3</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F104" s="3"/>
     </row>
@@ -3298,13 +3295,13 @@
         <v>19.399999999999999</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F105" s="3"/>
     </row>
@@ -3313,13 +3310,13 @@
         <v>19.5</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F106" s="3"/>
     </row>
@@ -3343,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -3354,13 +3351,13 @@
         <v>20.100000000000001</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F109" s="3"/>
     </row>
@@ -3369,13 +3366,13 @@
         <v>20.2</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F110" s="3"/>
     </row>
@@ -3384,13 +3381,13 @@
         <v>20.3</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F111" s="3"/>
     </row>
@@ -3399,13 +3396,13 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F112" s="3"/>
     </row>
@@ -3414,13 +3411,13 @@
         <v>20.5</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F113" s="3"/>
     </row>
@@ -3444,7 +3441,7 @@
         <v>21</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -3459,7 +3456,7 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F116" s="3"/>
     </row>
@@ -3468,13 +3465,13 @@
         <v>21.2</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F117" s="3"/>
     </row>
@@ -3483,13 +3480,13 @@
         <v>21.3</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F118" s="3"/>
     </row>
@@ -3498,13 +3495,13 @@
         <v>21.4</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F119" s="3"/>
     </row>
@@ -3513,13 +3510,13 @@
         <v>21.5</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F120" s="3"/>
     </row>
@@ -3528,13 +3525,13 @@
         <v>21.6</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F121" s="3"/>
     </row>
@@ -3558,7 +3555,7 @@
         <v>22</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -3569,11 +3566,11 @@
         <v>22.1</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F124" s="3"/>
     </row>
@@ -3582,13 +3579,13 @@
         <v>22.2</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F125" s="3"/>
     </row>
@@ -3597,13 +3594,13 @@
         <v>22.3</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F126" s="3"/>
     </row>
@@ -3612,13 +3609,13 @@
         <v>22.4</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F127" s="3"/>
     </row>
@@ -3642,7 +3639,7 @@
         <v>23</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -3672,7 +3669,7 @@
         <v>39</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F131" s="3"/>
     </row>
@@ -3687,7 +3684,7 @@
         <v>40</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F132" s="13"/>
     </row>
@@ -3702,7 +3699,7 @@
         <v>72</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F133" s="2"/>
     </row>
@@ -3714,10 +3711,10 @@
         <v>36</v>
       </c>
       <c r="D134" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3741,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -3771,7 +3768,7 @@
         <v>40</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F138" s="13"/>
     </row>
@@ -3783,10 +3780,10 @@
         <v>35</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -3795,13 +3792,13 @@
         <v>24.4</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -3825,7 +3822,7 @@
         <v>25</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -3855,7 +3852,7 @@
         <v>72</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F144" s="13"/>
     </row>
@@ -3870,7 +3867,7 @@
         <v>72</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3879,13 +3876,13 @@
         <v>25.4</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -3909,7 +3906,7 @@
         <v>26</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -3920,13 +3917,13 @@
         <v>26.1</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="F149" s="2"/>
     </row>
@@ -3950,7 +3947,7 @@
         <v>27</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -3961,11 +3958,11 @@
         <v>27.1</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F152" s="3"/>
     </row>
@@ -3974,13 +3971,13 @@
         <v>27.2</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F153" s="3"/>
     </row>
@@ -3989,13 +3986,13 @@
         <v>27.3</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F154" s="3"/>
     </row>
@@ -4004,13 +4001,13 @@
         <v>27.4</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F155" s="3"/>
     </row>
@@ -4034,7 +4031,7 @@
         <v>28</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -4058,13 +4055,13 @@
         <v>28.2</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4088,7 +4085,7 @@
         <v>29</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -4112,13 +4109,13 @@
         <v>29.2</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F163" s="2"/>
     </row>
@@ -4142,7 +4139,7 @@
         <v>30</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -4153,13 +4150,13 @@
         <v>30.1</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -4183,7 +4180,7 @@
         <v>31</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -4194,11 +4191,11 @@
         <v>31.1</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F169" s="3"/>
     </row>
@@ -4207,13 +4204,13 @@
         <v>31.2</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F170" s="3"/>
     </row>
@@ -4222,13 +4219,13 @@
         <v>31.3</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F171" s="3"/>
     </row>
@@ -4237,13 +4234,13 @@
         <v>31.4</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F172" s="3"/>
     </row>
@@ -4267,7 +4264,7 @@
         <v>32</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -4291,13 +4288,13 @@
         <v>32.200000000000003</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="E176" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="F176" s="2"/>
     </row>
@@ -4306,13 +4303,13 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D177" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="E177" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -4336,7 +4333,7 @@
         <v>33</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -4360,13 +4357,13 @@
         <v>33.200000000000003</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4375,13 +4372,13 @@
         <v>33.299999999999997</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F182" s="2"/>
     </row>
@@ -4405,7 +4402,7 @@
         <v>34</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -4416,13 +4413,13 @@
         <v>34.1</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="F185" s="2"/>
     </row>
@@ -4446,7 +4443,7 @@
         <v>35</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -4457,11 +4454,11 @@
         <v>35.1</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F188" s="3"/>
     </row>
@@ -4470,13 +4467,13 @@
         <v>35.200000000000003</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F189" s="3"/>
     </row>
@@ -4485,13 +4482,13 @@
         <v>35.299999999999997</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="F190" s="3"/>
     </row>
@@ -4500,13 +4497,13 @@
         <v>35.4</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F191" s="3"/>
     </row>
@@ -4530,7 +4527,7 @@
         <v>36</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -4554,13 +4551,13 @@
         <v>36.200000000000003</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D195" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D195" s="14" t="s">
+      <c r="E195" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="F195" s="2"/>
     </row>
@@ -4584,7 +4581,7 @@
         <v>37</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -4608,13 +4605,13 @@
         <v>37.200000000000003</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F199" s="2"/>
     </row>
@@ -4638,7 +4635,7 @@
         <v>38</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -4649,13 +4646,13 @@
         <v>38.1</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="F202" s="2"/>
     </row>
@@ -4679,7 +4676,7 @@
         <v>39</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -4690,11 +4687,11 @@
         <v>39.1</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F205" s="3"/>
     </row>
@@ -4703,13 +4700,13 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F206" s="3"/>
     </row>
@@ -4718,13 +4715,13 @@
         <v>39.299999999999997</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F207" s="3"/>
     </row>
@@ -4733,13 +4730,13 @@
         <v>39.4</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E208" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F208" s="3"/>
     </row>
@@ -4763,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -4774,13 +4771,13 @@
         <v>40.1</v>
       </c>
       <c r="C211" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F211" s="2"/>
     </row>
@@ -4789,13 +4786,13 @@
         <v>40.200000000000003</v>
       </c>
       <c r="C212" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="E212" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="F212" s="2"/>
     </row>
@@ -4804,13 +4801,13 @@
         <v>40.299999999999997</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D213" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="E213" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="F213" s="2"/>
     </row>
@@ -4834,7 +4831,7 @@
         <v>41</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -4845,11 +4842,11 @@
         <v>41.1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F216" s="3"/>
     </row>
@@ -4858,13 +4855,13 @@
         <v>41.2</v>
       </c>
       <c r="C217" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E217" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F217" s="3"/>
     </row>
@@ -4873,13 +4870,13 @@
         <v>41.3</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="F218" s="3"/>
     </row>
@@ -4888,13 +4885,13 @@
         <v>41.4</v>
       </c>
       <c r="C219" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E219" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F219" s="3"/>
     </row>
@@ -4918,7 +4915,7 @@
         <v>42</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -4942,13 +4939,13 @@
         <v>42.2</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D223" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F223" s="2"/>
     </row>
@@ -4972,7 +4969,7 @@
         <v>43</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -4996,13 +4993,13 @@
         <v>43.2</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F227" s="2"/>
     </row>
@@ -5026,7 +5023,7 @@
         <v>44</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -5037,13 +5034,13 @@
         <v>44.1</v>
       </c>
       <c r="C230" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="F230" s="2"/>
     </row>
@@ -5067,7 +5064,7 @@
         <v>45</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -5078,11 +5075,11 @@
         <v>45.1</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F233" s="3"/>
     </row>
@@ -5091,13 +5088,13 @@
         <v>45.2</v>
       </c>
       <c r="C234" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E234" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F234" s="3"/>
     </row>
@@ -5106,13 +5103,13 @@
         <v>45.3</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F235" s="3"/>
     </row>
@@ -5121,13 +5118,13 @@
         <v>45.4</v>
       </c>
       <c r="C236" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E236" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F236" s="3"/>
     </row>
@@ -5151,7 +5148,7 @@
         <v>46</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -5162,13 +5159,13 @@
         <v>46.1</v>
       </c>
       <c r="C239" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="E239" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="F239" s="2"/>
     </row>
@@ -5177,13 +5174,13 @@
         <v>46.2</v>
       </c>
       <c r="C240" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="E240" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F240" s="2"/>
     </row>
@@ -5192,13 +5189,13 @@
         <v>46.3</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F241" s="2"/>
     </row>
@@ -5222,7 +5219,7 @@
         <v>47</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -5233,11 +5230,11 @@
         <v>47.1</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F244" s="3"/>
     </row>
@@ -5246,13 +5243,13 @@
         <v>47.2</v>
       </c>
       <c r="C245" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E245" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F245" s="3"/>
     </row>
@@ -5261,13 +5258,13 @@
         <v>47.3</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F246" s="3"/>
     </row>
@@ -5276,13 +5273,13 @@
         <v>47.4</v>
       </c>
       <c r="C247" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E247" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F247" s="3"/>
     </row>
@@ -5306,7 +5303,7 @@
         <v>48</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -5317,13 +5314,13 @@
         <v>48.1</v>
       </c>
       <c r="C250" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="E250" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="F250" s="2"/>
     </row>
@@ -5332,13 +5329,13 @@
         <v>48.2</v>
       </c>
       <c r="C251" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F251" s="2"/>
     </row>
@@ -5347,13 +5344,13 @@
         <v>48.3</v>
       </c>
       <c r="C252" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="E252" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="F252" s="2"/>
     </row>
@@ -5377,7 +5374,7 @@
         <v>49</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -5388,11 +5385,11 @@
         <v>49.1</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F255" s="3"/>
     </row>
@@ -5401,13 +5398,13 @@
         <v>49.2</v>
       </c>
       <c r="C256" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E256" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F256" s="3"/>
     </row>
@@ -5416,13 +5413,13 @@
         <v>49.3</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="F257" s="3"/>
     </row>
@@ -5431,13 +5428,13 @@
         <v>49.4</v>
       </c>
       <c r="C258" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E258" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F258" s="3"/>
     </row>
@@ -5461,7 +5458,7 @@
         <v>50</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -5472,13 +5469,13 @@
         <v>50.1</v>
       </c>
       <c r="C261" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="E261" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="F261" s="2"/>
     </row>
@@ -5487,13 +5484,13 @@
         <v>50.2</v>
       </c>
       <c r="C262" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F262" s="2"/>
     </row>
@@ -5502,13 +5499,13 @@
         <v>50.3</v>
       </c>
       <c r="C263" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="E263" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="F263" s="2"/>
     </row>
@@ -5532,7 +5529,7 @@
         <v>51</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -5543,11 +5540,11 @@
         <v>51.1</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F266" s="2"/>
     </row>
@@ -5556,11 +5553,11 @@
         <v>51.2</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F267" s="2"/>
     </row>
@@ -5569,11 +5566,11 @@
         <v>51.3</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F268" s="2"/>
     </row>
@@ -5582,11 +5579,11 @@
         <v>51.4</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F269" s="2"/>
     </row>
@@ -5595,11 +5592,11 @@
         <v>51.5</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F270" s="2"/>
     </row>
@@ -5608,11 +5605,11 @@
         <v>51.6</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F271" s="2"/>
     </row>
@@ -5621,11 +5618,11 @@
         <v>51.7</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F272" s="2"/>
     </row>
@@ -5634,11 +5631,11 @@
         <v>51.8</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F273" s="2"/>
     </row>
@@ -5662,7 +5659,7 @@
         <v>52</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -5673,11 +5670,11 @@
         <v>52.1</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F276" s="2"/>
     </row>
@@ -5686,11 +5683,11 @@
         <v>52.2</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F277" s="2"/>
     </row>
@@ -5699,11 +5696,11 @@
         <v>52.3</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F278" s="2"/>
     </row>
@@ -5727,7 +5724,7 @@
         <v>53</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -5738,11 +5735,11 @@
         <v>53.1</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F281" s="2"/>
     </row>
@@ -5766,7 +5763,7 @@
         <v>54</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -5777,13 +5774,13 @@
         <v>54.1</v>
       </c>
       <c r="C284" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D284" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="E284" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="F284" s="2"/>
     </row>
@@ -5807,7 +5804,7 @@
         <v>55</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -5818,11 +5815,11 @@
         <v>55.1</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F287" s="3"/>
     </row>
@@ -5831,13 +5828,13 @@
         <v>55.2</v>
       </c>
       <c r="C288" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D288" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E288" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F288" s="3"/>
     </row>
@@ -5846,13 +5843,13 @@
         <v>55.3</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F289" s="3"/>
     </row>
@@ -5861,13 +5858,13 @@
         <v>55.4</v>
       </c>
       <c r="C290" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D290" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E290" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F290" s="3"/>
     </row>
@@ -5891,7 +5888,7 @@
         <v>56</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -5915,13 +5912,13 @@
         <v>56.2</v>
       </c>
       <c r="C294" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="F294" s="2"/>
     </row>
@@ -5930,13 +5927,13 @@
         <v>56.3</v>
       </c>
       <c r="C295" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="D295" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="F295" s="2"/>
     </row>
@@ -5960,7 +5957,7 @@
         <v>57</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -5984,13 +5981,13 @@
         <v>57.2</v>
       </c>
       <c r="C299" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="F299" s="2"/>
     </row>
@@ -5999,13 +5996,13 @@
         <v>57.3</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F300" s="2"/>
     </row>
@@ -6029,7 +6026,7 @@
         <v>58</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -6040,13 +6037,13 @@
         <v>58.1</v>
       </c>
       <c r="C303" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="F303" s="2"/>
     </row>
@@ -6070,7 +6067,7 @@
         <v>59</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -6081,11 +6078,11 @@
         <v>59.1</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F306" s="3"/>
     </row>
@@ -6094,13 +6091,13 @@
         <v>59.2</v>
       </c>
       <c r="C307" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D307" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D307" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E307" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F307" s="3"/>
     </row>
@@ -6109,13 +6106,13 @@
         <v>59.3</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F308" s="3"/>
     </row>
@@ -6124,13 +6121,13 @@
         <v>59.4</v>
       </c>
       <c r="C309" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D309" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E309" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F309" s="3"/>
     </row>
@@ -6154,7 +6151,7 @@
         <v>60</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -6165,13 +6162,13 @@
         <v>60.1</v>
       </c>
       <c r="C312" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="F312" s="2"/>
     </row>
@@ -6180,13 +6177,13 @@
         <v>60.2</v>
       </c>
       <c r="C313" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D313" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D313" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E313" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F313" s="3"/>
     </row>
@@ -6195,13 +6192,13 @@
         <v>60.3</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F314" s="3"/>
     </row>
@@ -6210,13 +6207,13 @@
         <v>60.4</v>
       </c>
       <c r="C315" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D315" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D315" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E315" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F315" s="3"/>
     </row>
@@ -6255,7 +6252,7 @@
         <v>61</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
@@ -6266,11 +6263,11 @@
         <v>61.1</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F319" s="2"/>
     </row>
@@ -6279,13 +6276,13 @@
         <v>61.2</v>
       </c>
       <c r="C320" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D320" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D320" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="E320" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F320" s="2"/>
     </row>
@@ -6294,11 +6291,11 @@
         <v>61.3</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F321" s="2"/>
     </row>
@@ -6307,13 +6304,13 @@
         <v>61.4</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D322" s="21">
         <v>0</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F322" s="2"/>
     </row>
@@ -6322,13 +6319,13 @@
         <v>61.5</v>
       </c>
       <c r="C323" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D323" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="E323" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="F323" s="2"/>
     </row>
@@ -6352,7 +6349,7 @@
         <v>62</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
@@ -6363,28 +6360,26 @@
         <v>62.1</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="F326" s="2"/>
     </row>
     <row r="327" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="10">
         <v>62.2</v>
       </c>
       <c r="C327" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D327" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D327" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="E327" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F327" s="2"/>
     </row>
@@ -6393,28 +6388,26 @@
         <v>62.3</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D328" s="3"/>
       <c r="E328" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F328" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="F328" s="2"/>
     </row>
     <row r="329" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="10">
         <v>62.4</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D329" s="21">
         <v>0</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F329" s="2"/>
     </row>
@@ -6423,13 +6416,13 @@
         <v>62.5</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F330" s="2"/>
     </row>
@@ -6453,7 +6446,7 @@
         <v>63</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
@@ -6464,13 +6457,13 @@
         <v>63.1</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F333" s="2"/>
     </row>
@@ -6494,7 +6487,7 @@
         <v>64</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
@@ -6505,11 +6498,11 @@
         <v>64.099999999999994</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F336" s="3"/>
     </row>
@@ -6518,13 +6511,13 @@
         <v>64.2</v>
       </c>
       <c r="C337" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D337" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D337" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E337" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F337" s="3"/>
     </row>
@@ -6533,13 +6526,13 @@
         <v>64.3</v>
       </c>
       <c r="C338" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E338" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="F338" s="3"/>
     </row>
@@ -6548,13 +6541,13 @@
         <v>64.400000000000006</v>
       </c>
       <c r="C339" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D339" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D339" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E339" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F339" s="3"/>
     </row>
@@ -6578,7 +6571,7 @@
         <v>65</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -6602,13 +6595,13 @@
         <v>65.2</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F343" s="2"/>
     </row>
@@ -6617,13 +6610,13 @@
         <v>65.3</v>
       </c>
       <c r="C344" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D344" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E344" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="D344" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="E344" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="F344" s="2"/>
     </row>
@@ -6632,16 +6625,16 @@
         <v>65.400000000000006</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D345" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="D345" s="22" t="s">
+      <c r="E345" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E345" s="2" t="s">
+      <c r="F345" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="346" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,13 +6642,13 @@
         <v>65.5</v>
       </c>
       <c r="C346" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D346" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E346" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="D346" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="E346" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="F346" s="2"/>
     </row>
@@ -6679,7 +6672,7 @@
         <v>66</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -6703,13 +6696,13 @@
         <v>66.2</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F350" s="2"/>
     </row>
@@ -6718,13 +6711,13 @@
         <v>66.3</v>
       </c>
       <c r="C351" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D351" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E351" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="D351" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="E351" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="F351" s="2"/>
     </row>
@@ -6733,16 +6726,16 @@
         <v>66.400000000000006</v>
       </c>
       <c r="C352" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D352" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="D352" s="22" t="s">
+      <c r="E352" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E352" s="2" t="s">
+      <c r="F352" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="353" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6750,13 +6743,13 @@
         <v>66.5</v>
       </c>
       <c r="C353" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D353" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="D353" s="12" t="s">
+      <c r="E353" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="F353" s="2"/>
     </row>
@@ -6780,7 +6773,7 @@
         <v>67</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -6791,13 +6784,13 @@
         <v>67.099999999999994</v>
       </c>
       <c r="C356" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E356" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="F356" s="2"/>
     </row>
